--- a/EN.xlsx
+++ b/EN.xlsx
@@ -243,19 +243,19 @@
     <t>AlarmStandingWaterMeters</t>
   </si>
   <si>
-    <t>Stopped water meter event</t>
+    <t>Low water consumption event</t>
   </si>
   <si>
     <t>AlarmStandingWaterMetersMaxValue</t>
   </si>
   <si>
-    <t>Maximum permitted water volume during set stopover days</t>
+    <t>Total water consumption below which event will be generated *</t>
   </si>
   <si>
     <t>AlarmStandingWaterMetersMaxValueInfo</t>
   </si>
   <si>
-    <t>Total volume below which the event will be generated.</t>
+    <t>* refers to above period</t>
   </si>
   <si>
     <t>AlarmType</t>
@@ -1027,7 +1027,7 @@
     <t>DaysStopover</t>
   </si>
   <si>
-    <t>Stopover days</t>
+    <t>Period in days for which total water consumption will be checked</t>
   </si>
   <si>
     <t>DefaultDeviceTypeFor</t>
@@ -1726,7 +1726,7 @@
     <t>GenerateAlarmStandingWaterMeters</t>
   </si>
   <si>
-    <t>Generate no water consumption event</t>
+    <t>Generate low water consumption event</t>
   </si>
   <si>
     <t>GetMeasurementPointNameFromRadioNumberIfNoteEmpty</t>
